--- a/data/Data for web team 2021 v6.xlsx
+++ b/data/Data for web team 2021 v6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgorg.sharepoint.com/sites/Team-JC-Research/Shared Documents/50 State Revocations Project/50 State Survey (2021)/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1306" documentId="8_{719CCFE4-880F-4C83-BEAE-0D6CBEEAE7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81481AC7-F50B-417F-AC9C-4EB03852FB2B}"/>
+  <xr:revisionPtr revIDLastSave="1307" documentId="8_{719CCFE4-880F-4C83-BEAE-0D6CBEEAE7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AB2BE79-CC98-411C-9159-F81581E1692F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admissions 2018" sheetId="1" r:id="rId1"/>
@@ -4870,7 +4870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IS53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
@@ -7012,8 +7012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IT55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -8134,30 +8134,14 @@
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5">
-        <v>41937</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10080</v>
-      </c>
-      <c r="E5" s="5">
-        <v>8339</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5335</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3004</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1741</v>
-      </c>
-      <c r="I5" s="5">
-        <v>566</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1175</v>
-      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="20"/>
@@ -54097,7 +54081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBA7079-3894-49AA-98D1-2B5E43F1BAE6}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="B28" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -54685,9 +54669,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54902,16 +54889,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AF7866-3992-45B4-9764-3FF39FD33CFF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF3EFDD-5B69-4990-915C-5FBC000951BA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54919,5 +54903,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF3EFDD-5B69-4990-915C-5FBC000951BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AF7866-3992-45B4-9764-3FF39FD33CFF}"/>
 </file>
--- a/data/Data for web team 2021 v6.xlsx
+++ b/data/Data for web team 2021 v6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgorg.sharepoint.com/sites/Team-JC-Research/Shared Documents/50 State Revocations Project/50 State Survey (2021)/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1307" documentId="8_{719CCFE4-880F-4C83-BEAE-0D6CBEEAE7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AB2BE79-CC98-411C-9159-F81581E1692F}"/>
+  <xr:revisionPtr revIDLastSave="1311" documentId="8_{719CCFE4-880F-4C83-BEAE-0D6CBEEAE7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{715D5FA3-6CCC-4D73-9DB0-A4F1C264904F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admissions 2018" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -446,6 +446,12 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -480,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -590,11 +596,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAEAAAA"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFAEAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAEAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAEAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAEAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAEAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAEAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAEAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAEAAAA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAEAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAEAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAEAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,6 +777,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1867,7 +1956,7 @@
   <dimension ref="A1:IQ52"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -7012,7 +7101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IT55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:J5"/>
     </sheetView>
   </sheetViews>
@@ -8134,14 +8223,30 @@
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="C5" s="69">
+        <v>41937</v>
+      </c>
+      <c r="D5" s="69">
+        <v>10080</v>
+      </c>
+      <c r="E5" s="69">
+        <v>8339</v>
+      </c>
+      <c r="F5" s="69">
+        <v>5335</v>
+      </c>
+      <c r="G5" s="69">
+        <v>3004</v>
+      </c>
+      <c r="H5" s="69">
+        <v>1741</v>
+      </c>
+      <c r="I5" s="70">
+        <v>566</v>
+      </c>
+      <c r="J5" s="69">
+        <v>1175</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="20"/>
@@ -21900,8 +22005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IT55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -23022,29 +23127,29 @@
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5">
-        <v>41937</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10080</v>
-      </c>
-      <c r="E5" s="5">
-        <v>8339</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5335</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3004</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1741</v>
-      </c>
-      <c r="I5" s="5">
-        <v>566</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1175</v>
+      <c r="C5" s="69">
+        <v>42441</v>
+      </c>
+      <c r="D5" s="69">
+        <v>10072</v>
+      </c>
+      <c r="E5" s="69">
+        <v>8265</v>
+      </c>
+      <c r="F5" s="69">
+        <v>5329</v>
+      </c>
+      <c r="G5" s="69">
+        <v>2936</v>
+      </c>
+      <c r="H5" s="69">
+        <v>1807</v>
+      </c>
+      <c r="I5" s="70">
+        <v>545</v>
+      </c>
+      <c r="J5" s="69">
+        <v>1262</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="20"/>
@@ -36789,8 +36894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:IT65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -37349,28 +37454,28 @@
       <c r="B3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="75">
         <v>4618</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="75">
         <v>1533</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="75">
         <v>1280</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="75">
         <v>807</v>
       </c>
-      <c r="G3" s="61">
+      <c r="G3" s="75">
         <v>473</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="75">
         <v>252</v>
       </c>
-      <c r="I3" s="61">
+      <c r="I3" s="75">
         <v>159</v>
       </c>
-      <c r="J3" s="61">
+      <c r="J3" s="75">
         <v>94</v>
       </c>
       <c r="K3" s="60" t="s">
@@ -37623,34 +37728,34 @@
       <c r="A4" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="71">
         <v>37731</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="71">
         <v>8838</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="71">
         <v>7897</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="71">
         <v>5861</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="71">
         <v>2036</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="72">
         <v>941</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="72">
         <v>499</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4" s="72">
         <v>442</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="74" t="s">
         <v>115</v>
       </c>
       <c r="L4" s="59"/>
@@ -37903,28 +38008,28 @@
       <c r="B5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="76">
         <v>13840</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="76">
         <v>6242</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="76">
         <v>2252</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="76">
         <v>1884</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="76">
         <v>368</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="76">
         <v>3990</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="76">
         <v>3081</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="76">
         <v>909</v>
       </c>
       <c r="K5" s="60" t="s">
@@ -54669,12 +54774,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54889,13 +54991,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF3EFDD-5B69-4990-915C-5FBC000951BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AF7866-3992-45B4-9764-3FF39FD33CFF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54903,5 +55008,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AF7866-3992-45B4-9764-3FF39FD33CFF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF3EFDD-5B69-4990-915C-5FBC000951BA}"/>
 </file>